--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_hospitals_healthcare_facilities.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_hospitals_healthcare_facilities.xlsx
@@ -591,46 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0264</v>
-      </c>
-      <c r="E2">
-        <v>-0.00653</v>
+        <v>-0.0246</v>
       </c>
       <c r="G2">
-        <v>0.1508771929824561</v>
+        <v>0.08467966573816156</v>
       </c>
       <c r="H2">
-        <v>0.1508771929824561</v>
+        <v>0.08467966573816156</v>
       </c>
       <c r="I2">
-        <v>0.118859649122807</v>
+        <v>-0.02116991643454039</v>
       </c>
       <c r="J2">
-        <v>0.08785278413424867</v>
+        <v>-0.02116991643454039</v>
       </c>
       <c r="K2">
-        <v>0.477</v>
+        <v>-0.083</v>
       </c>
       <c r="L2">
-        <v>0.1046052631578947</v>
+        <v>-0.02311977715877438</v>
       </c>
       <c r="M2">
-        <v>0.255</v>
+        <v>0.212</v>
       </c>
       <c r="N2">
-        <v>0.01795774647887324</v>
+        <v>0.0157037037037037</v>
       </c>
       <c r="O2">
-        <v>0.5345911949685535</v>
+        <v>-2.554216867469879</v>
       </c>
       <c r="P2">
-        <v>0.255</v>
+        <v>0.212</v>
       </c>
       <c r="Q2">
-        <v>0.01795774647887324</v>
+        <v>0.0157037037037037</v>
       </c>
       <c r="R2">
-        <v>0.5345911949685535</v>
+        <v>-2.554216867469879</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +636,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.761</v>
+        <v>0.509</v>
       </c>
       <c r="V2">
-        <v>0.05359154929577465</v>
+        <v>0.0377037037037037</v>
       </c>
       <c r="W2">
-        <v>0.04258928571428572</v>
+        <v>-0.007280701754385965</v>
       </c>
       <c r="X2">
-        <v>0.0632981846443966</v>
+        <v>0.06322667656689483</v>
       </c>
       <c r="Y2">
-        <v>-0.02070889893011088</v>
+        <v>-0.0705073783212808</v>
       </c>
       <c r="Z2">
-        <v>0.4620060790273556</v>
+        <v>0.3374377291098787</v>
       </c>
       <c r="AA2">
-        <v>0.04058852032950091</v>
+        <v>-0.007143528527117209</v>
       </c>
       <c r="AB2">
-        <v>0.0632981846443966</v>
+        <v>0.06322667656689483</v>
       </c>
       <c r="AC2">
-        <v>-0.02270966431489569</v>
+        <v>-0.07037020509401204</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.761</v>
+        <v>-0.509</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.05662623707121066</v>
+        <v>-0.03918097144176738</v>
       </c>
       <c r="AK2">
-        <v>-0.07152927906758154</v>
+        <v>-0.04851777714231246</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.097</v>
+        <v>-0.064</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.965736040609137</v>
+        <v>-3.161490683229814</v>
       </c>
       <c r="AQ2">
-        <v>-5.587628865979382</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +719,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0264</v>
-      </c>
-      <c r="E3">
-        <v>-0.00653</v>
+        <v>-0.0246</v>
       </c>
       <c r="G3">
-        <v>0.1508771929824561</v>
+        <v>0.08467966573816156</v>
       </c>
       <c r="H3">
-        <v>0.1508771929824561</v>
+        <v>0.08467966573816156</v>
       </c>
       <c r="I3">
-        <v>0.118859649122807</v>
+        <v>-0.02116991643454039</v>
       </c>
       <c r="J3">
-        <v>0.08785278413424867</v>
+        <v>-0.02116991643454039</v>
       </c>
       <c r="K3">
-        <v>0.477</v>
+        <v>-0.083</v>
       </c>
       <c r="L3">
-        <v>0.1046052631578947</v>
+        <v>-0.02311977715877438</v>
       </c>
       <c r="M3">
-        <v>0.255</v>
+        <v>0.212</v>
       </c>
       <c r="N3">
-        <v>0.01795774647887324</v>
+        <v>0.0157037037037037</v>
       </c>
       <c r="O3">
-        <v>0.5345911949685535</v>
+        <v>-2.554216867469879</v>
       </c>
       <c r="P3">
-        <v>0.255</v>
+        <v>0.212</v>
       </c>
       <c r="Q3">
-        <v>0.01795774647887324</v>
+        <v>0.0157037037037037</v>
       </c>
       <c r="R3">
-        <v>0.5345911949685535</v>
+        <v>-2.554216867469879</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,31 +764,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.761</v>
+        <v>0.509</v>
       </c>
       <c r="V3">
-        <v>0.05359154929577465</v>
+        <v>0.0377037037037037</v>
       </c>
       <c r="W3">
-        <v>0.04258928571428572</v>
+        <v>-0.007280701754385965</v>
       </c>
       <c r="X3">
-        <v>0.0632981846443966</v>
+        <v>0.06322667656689483</v>
       </c>
       <c r="Y3">
-        <v>-0.02070889893011088</v>
+        <v>-0.0705073783212808</v>
       </c>
       <c r="Z3">
-        <v>0.4620060790273556</v>
+        <v>0.3374377291098787</v>
       </c>
       <c r="AA3">
-        <v>0.04058852032950091</v>
+        <v>-0.007143528527117209</v>
       </c>
       <c r="AB3">
-        <v>0.0632981846443966</v>
+        <v>0.06322667656689483</v>
       </c>
       <c r="AC3">
-        <v>-0.02270966431489569</v>
+        <v>-0.07037020509401204</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.761</v>
+        <v>-0.509</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -815,25 +809,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.05662623707121066</v>
+        <v>-0.03918097144176738</v>
       </c>
       <c r="AK3">
-        <v>-0.07152927906758154</v>
+        <v>-0.04851777714231246</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.097</v>
+        <v>-0.064</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.965736040609137</v>
+        <v>-3.161490683229814</v>
       </c>
       <c r="AQ3">
-        <v>-5.587628865979382</v>
+        <v>1.1875</v>
       </c>
     </row>
   </sheetData>
